--- a/Data/Personally Collected Data/World trade prices WTO MoM.xlsx
+++ b/Data/Personally Collected Data/World trade prices WTO MoM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rutra/ВШЭ/Магистратура/Thesis/Data/Personally Collected Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D9C88B-459B-D444-B802-7DC9699BA6D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734AF8F8-1115-8848-AFD0-8E1D5066CCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="29">
   <si>
     <t>World</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Inverted export prices MoM</t>
+  </si>
+  <si>
+    <t>Inverted export prices MoM / 100</t>
   </si>
 </sst>
 </file>
@@ -542,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G195"/>
+  <dimension ref="A2:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -556,9 +562,11 @@
     <col min="4" max="5" width="50.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -568,7 +576,7 @@
       </c>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -578,7 +586,7 @@
       </c>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -600,8 +608,14 @@
       <c r="G4" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -626,8 +640,16 @@
         <f ca="1">OFFSET($D$195,(ROW($D$5)-ROW()),)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <f ca="1">OFFSET($C$195,(ROW($C$5)-ROW()),)</f>
+        <v>2.1</v>
+      </c>
+      <c r="I5">
+        <f ca="1">H5/100</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -652,8 +674,16 @@
         <f t="shared" ref="G6:G69" ca="1" si="2">OFFSET($D$195,(ROW($D$5)-ROW()),)</f>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <f t="shared" ref="H6:H69" ca="1" si="3">OFFSET($C$195,(ROW($C$5)-ROW()),)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I69" ca="1" si="4">H6/100</f>
+        <v>1.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -678,8 +708,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -704,8 +742,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -730,8 +776,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.7</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -756,8 +810,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -782,8 +844,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -808,8 +878,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +912,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-1.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +946,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +980,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.5</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -912,8 +1014,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -938,8 +1048,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +1082,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,8 +1116,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="4"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1016,8 +1150,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1184,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.4</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1068,8 +1218,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.3</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,8 +1252,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1120,8 +1286,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.4</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -1146,8 +1320,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.3</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1172,8 +1354,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.3</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -1198,8 +1388,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1224,8 +1422,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1250,8 +1456,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="4"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1276,8 +1490,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.4</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1302,8 +1524,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.9</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ca="1" si="4"/>
+        <v>-9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -1328,8 +1558,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -1354,8 +1592,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.5</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="4"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -1380,8 +1626,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -1406,8 +1660,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.3</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -1432,8 +1694,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-1.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1.5</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1458,8 +1728,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -1484,8 +1762,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -1510,8 +1796,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -1536,8 +1830,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.9</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -1562,8 +1864,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -1588,8 +1898,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -1614,8 +1932,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.4</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -1640,8 +1966,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -1666,8 +2000,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -1692,8 +2034,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.4</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -1718,8 +2068,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -1744,8 +2102,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
@@ -1770,8 +2136,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ca="1" si="4"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
@@ -1796,8 +2170,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -1822,8 +2204,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="4"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
@@ -1848,8 +2238,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
@@ -1874,8 +2272,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="I53">
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -1900,8 +2306,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.9</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ca="1" si="4"/>
+        <v>-9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -1926,8 +2340,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.7</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
@@ -1952,8 +2374,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -1978,8 +2408,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -2004,8 +2442,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-1.1000000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.8</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ca="1" si="4"/>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
@@ -2030,8 +2476,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -2056,8 +2510,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ca="1" si="4"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -2082,8 +2544,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="I61">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -2108,8 +2578,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -2134,8 +2612,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -2160,8 +2646,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <f t="shared" ca="1" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -2186,8 +2680,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -2212,8 +2714,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-1.9</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <f t="shared" ca="1" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
@@ -2238,8 +2748,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.4</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
@@ -2264,8 +2782,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <f t="shared" ca="1" si="3"/>
+        <v>-0.3</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
@@ -2290,8 +2816,16 @@
         <f t="shared" ca="1" si="2"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>11</v>
       </c>
@@ -2305,19 +2839,27 @@
         <v>2.9</v>
       </c>
       <c r="E70" s="15" t="str">
-        <f t="shared" ref="E70:E133" si="3">CONCATENATE(B70," ",A70)</f>
+        <f t="shared" ref="E70:E133" si="5">CONCATENATE(B70," ",A70)</f>
         <v>7 2010</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" ref="F70:F133" ca="1" si="4">OFFSET($E$195,(ROW($E$5)-ROW()),)</f>
+        <f t="shared" ref="F70:F133" ca="1" si="6">OFFSET($E$195,(ROW($E$5)-ROW()),)</f>
         <v>7 2015</v>
       </c>
       <c r="G70">
-        <f t="shared" ref="G70:G133" ca="1" si="5">OFFSET($D$195,(ROW($D$5)-ROW()),)</f>
+        <f t="shared" ref="G70:G133" ca="1" si="7">OFFSET($D$195,(ROW($D$5)-ROW()),)</f>
         <v>-1.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <f t="shared" ref="H70:H133" ca="1" si="8">OFFSET($C$195,(ROW($C$5)-ROW()),)</f>
+        <v>-1.4</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ref="I70:I133" ca="1" si="9">H70/100</f>
+        <v>-1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
@@ -2331,19 +2873,27 @@
         <v>0.2</v>
       </c>
       <c r="E71" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8 2010</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>6 2015</v>
       </c>
       <c r="G71">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ca="1" si="9"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>11</v>
       </c>
@@ -2357,19 +2907,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E72" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9 2010</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5 2015</v>
       </c>
       <c r="G72">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.1</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>11</v>
       </c>
@@ -2383,19 +2941,27 @@
         <v>3.6</v>
       </c>
       <c r="E73" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10 2010</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4 2015</v>
       </c>
       <c r="G73">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.6</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ca="1" si="9"/>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>11</v>
       </c>
@@ -2409,19 +2975,27 @@
         <v>-0.8</v>
       </c>
       <c r="E74" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11 2010</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3 2015</v>
       </c>
       <c r="G74">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.5</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -2435,19 +3009,27 @@
         <v>-0.9</v>
       </c>
       <c r="E75" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12 2010</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2 2015</v>
       </c>
       <c r="G75">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.6</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.6E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>12</v>
       </c>
@@ -2461,19 +3043,27 @@
         <v>2.1</v>
       </c>
       <c r="E76" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1 2011</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1 2015</v>
       </c>
       <c r="G76">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <f t="shared" ca="1" si="8"/>
+        <v>-2.4</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2.4E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -2487,19 +3077,27 @@
         <v>1.5</v>
       </c>
       <c r="E77" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2 2011</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>12 2014</v>
       </c>
       <c r="G77">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.5</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ca="1" si="9"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -2513,19 +3111,27 @@
         <v>2.6</v>
       </c>
       <c r="E78" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3 2011</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>11 2014</v>
       </c>
       <c r="G78">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.9</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ca="1" si="9"/>
+        <v>-9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>12</v>
       </c>
@@ -2539,19 +3145,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E79" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4 2011</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>10 2014</v>
       </c>
       <c r="G79">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.3</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>12</v>
       </c>
@@ -2565,19 +3179,27 @@
         <v>-0.4</v>
       </c>
       <c r="E80" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5 2011</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>9 2014</v>
       </c>
       <c r="G80">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.7</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -2591,19 +3213,27 @@
         <v>0.9</v>
       </c>
       <c r="E81" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6 2011</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>8 2014</v>
       </c>
       <c r="G81">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.3</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ca="1" si="9"/>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
@@ -2617,19 +3247,27 @@
         <v>-0.4</v>
       </c>
       <c r="E82" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7 2011</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>7 2014</v>
       </c>
       <c r="G82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
@@ -2643,19 +3281,27 @@
         <v>0.3</v>
       </c>
       <c r="E83" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8 2011</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>6 2014</v>
       </c>
       <c r="G83">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-1.1000000000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.8</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ca="1" si="9"/>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>12</v>
       </c>
@@ -2669,19 +3315,27 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="E84" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9 2011</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5 2014</v>
       </c>
       <c r="G84">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -2695,19 +3349,27 @@
         <v>-0.5</v>
       </c>
       <c r="E85" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10 2011</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4 2014</v>
       </c>
       <c r="G85">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.6</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ca="1" si="9"/>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -2721,19 +3383,27 @@
         <v>0</v>
       </c>
       <c r="E86" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11 2011</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3 2014</v>
       </c>
       <c r="G86">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ca="1" si="9"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -2747,19 +3417,27 @@
         <v>-1.4</v>
       </c>
       <c r="E87" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12 2011</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2 2014</v>
       </c>
       <c r="G87">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>13</v>
       </c>
@@ -2773,19 +3451,27 @@
         <v>0.2</v>
       </c>
       <c r="E88" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1 2012</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1 2014</v>
       </c>
       <c r="G88">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>13</v>
       </c>
@@ -2799,19 +3485,27 @@
         <v>1.3</v>
       </c>
       <c r="E89" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2 2012</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>12 2013</v>
       </c>
       <c r="G89">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -2825,19 +3519,27 @@
         <v>-0.1</v>
       </c>
       <c r="E90" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3 2012</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>11 2013</v>
       </c>
       <c r="G90">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.6</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ca="1" si="9"/>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>13</v>
       </c>
@@ -2851,19 +3553,27 @@
         <v>-0.3</v>
       </c>
       <c r="E91" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4 2012</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>10 2013</v>
       </c>
       <c r="G91">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
@@ -2877,19 +3587,27 @@
         <v>-1.8</v>
       </c>
       <c r="E92" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5 2012</v>
       </c>
       <c r="F92" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>9 2013</v>
       </c>
       <c r="G92">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ca="1" si="9"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
@@ -2903,19 +3621,27 @@
         <v>-0.6</v>
       </c>
       <c r="E93" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6 2012</v>
       </c>
       <c r="F93" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>8 2013</v>
       </c>
       <c r="G93">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
@@ -2929,19 +3655,27 @@
         <v>-0.8</v>
       </c>
       <c r="E94" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7 2012</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>7 2013</v>
       </c>
       <c r="G94">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.2</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
@@ -2955,19 +3689,27 @@
         <v>0.9</v>
       </c>
       <c r="E95" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8 2012</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>6 2013</v>
       </c>
       <c r="G95">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>13</v>
       </c>
@@ -2981,19 +3723,27 @@
         <v>1.7</v>
       </c>
       <c r="E96" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9 2012</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5 2013</v>
       </c>
       <c r="G96">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.7</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ca="1" si="9"/>
+        <v>-6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
@@ -3007,19 +3757,27 @@
         <v>0.1</v>
       </c>
       <c r="E97" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10 2012</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4 2013</v>
       </c>
       <c r="G97">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ca="1" si="9"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>13</v>
       </c>
@@ -3033,19 +3791,27 @@
         <v>-0.4</v>
       </c>
       <c r="E98" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11 2012</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3 2013</v>
       </c>
       <c r="G98">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-1.4</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.5</v>
+      </c>
+      <c r="I98">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>13</v>
       </c>
@@ -3059,19 +3825,27 @@
         <v>0.7</v>
       </c>
       <c r="E99" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12 2012</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2 2013</v>
       </c>
       <c r="G99">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>14</v>
       </c>
@@ -3085,19 +3859,27 @@
         <v>0.4</v>
       </c>
       <c r="E100" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1 2013</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1 2013</v>
       </c>
       <c r="G100">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>14</v>
       </c>
@@ -3111,19 +3893,27 @@
         <v>0</v>
       </c>
       <c r="E101" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2 2013</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>12 2012</v>
       </c>
       <c r="G101">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>14</v>
       </c>
@@ -3137,19 +3927,27 @@
         <v>-1.4</v>
       </c>
       <c r="E102" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3 2013</v>
       </c>
       <c r="F102" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>11 2012</v>
       </c>
       <c r="G102">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.5</v>
+      </c>
+      <c r="I102">
+        <f t="shared" ca="1" si="9"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>14</v>
       </c>
@@ -3163,19 +3961,27 @@
         <v>0.1</v>
       </c>
       <c r="E103" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4 2013</v>
       </c>
       <c r="F103" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>10 2012</v>
       </c>
       <c r="G103">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="I103">
+        <f t="shared" ca="1" si="9"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>14</v>
       </c>
@@ -3189,19 +3995,27 @@
         <v>-0.9</v>
       </c>
       <c r="E104" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5 2013</v>
       </c>
       <c r="F104" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>9 2012</v>
       </c>
       <c r="G104">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1.7</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="I104">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>14</v>
       </c>
@@ -3215,19 +4029,27 @@
         <v>0.8</v>
       </c>
       <c r="E105" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6 2013</v>
       </c>
       <c r="F105" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>8 2012</v>
       </c>
       <c r="G105">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="I105">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>14</v>
       </c>
@@ -3241,19 +4063,27 @@
         <v>-0.9</v>
       </c>
       <c r="E106" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7 2013</v>
       </c>
       <c r="F106" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>7 2012</v>
       </c>
       <c r="G106">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.7</v>
+      </c>
+      <c r="I106">
+        <f t="shared" ca="1" si="9"/>
+        <v>-6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>14</v>
       </c>
@@ -3267,19 +4097,27 @@
         <v>0.8</v>
       </c>
       <c r="E107" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8 2013</v>
       </c>
       <c r="F107" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>6 2012</v>
       </c>
       <c r="G107">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.8</v>
+      </c>
+      <c r="I107">
+        <f t="shared" ca="1" si="9"/>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>14</v>
       </c>
@@ -3293,19 +4131,27 @@
         <v>0.4</v>
       </c>
       <c r="E108" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9 2013</v>
       </c>
       <c r="F108" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5 2012</v>
       </c>
       <c r="G108">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.6</v>
+      </c>
+      <c r="I108">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.6E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>14</v>
       </c>
@@ -3319,19 +4165,27 @@
         <v>0.7</v>
       </c>
       <c r="E109" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10 2013</v>
       </c>
       <c r="F109" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4 2012</v>
       </c>
       <c r="G109">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>14</v>
       </c>
@@ -3345,19 +4199,27 @@
         <v>-0.6</v>
       </c>
       <c r="E110" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11 2013</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3 2012</v>
       </c>
       <c r="G110">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I110">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>14</v>
       </c>
@@ -3371,19 +4233,27 @@
         <v>1</v>
       </c>
       <c r="E111" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12 2013</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2 2012</v>
       </c>
       <c r="G111">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.3</v>
+      </c>
+      <c r="I111">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>15</v>
       </c>
@@ -3397,19 +4267,27 @@
         <v>-0.1</v>
       </c>
       <c r="E112" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1 2014</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1 2012</v>
       </c>
       <c r="G112">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="I112">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>15</v>
       </c>
@@ -3423,19 +4301,27 @@
         <v>0.1</v>
       </c>
       <c r="E113" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2 2014</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>12 2011</v>
       </c>
       <c r="G113">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-1.4</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113">
+        <f t="shared" ca="1" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="I113">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>15</v>
       </c>
@@ -3449,19 +4335,27 @@
         <v>0.6</v>
       </c>
       <c r="E114" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3 2014</v>
       </c>
       <c r="F114" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>11 2011</v>
       </c>
       <c r="G114">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.3</v>
+      </c>
+      <c r="I114">
+        <f t="shared" ca="1" si="9"/>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>15</v>
       </c>
@@ -3475,19 +4369,27 @@
         <v>-0.1</v>
       </c>
       <c r="E115" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4 2014</v>
       </c>
       <c r="F115" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>10 2011</v>
       </c>
       <c r="G115">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.5</v>
+      </c>
+      <c r="I115">
+        <f t="shared" ca="1" si="9"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>15</v>
       </c>
@@ -3501,19 +4403,27 @@
         <v>0</v>
       </c>
       <c r="E116" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5 2014</v>
       </c>
       <c r="F116" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>9 2011</v>
       </c>
       <c r="G116">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-2.2999999999999998</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116">
+        <f t="shared" ca="1" si="8"/>
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="I116">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>15</v>
       </c>
@@ -3527,19 +4437,27 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="E117" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6 2014</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>8 2011</v>
       </c>
       <c r="G117">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="I117">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>15</v>
       </c>
@@ -3553,19 +4471,27 @@
         <v>0.4</v>
       </c>
       <c r="E118" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7 2014</v>
       </c>
       <c r="F118" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>7 2011</v>
       </c>
       <c r="G118">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.5</v>
+      </c>
+      <c r="I118">
+        <f t="shared" ca="1" si="9"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>15</v>
       </c>
@@ -3579,19 +4505,27 @@
         <v>0</v>
       </c>
       <c r="E119" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8 2014</v>
       </c>
       <c r="F119" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>6 2011</v>
       </c>
       <c r="G119">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.3</v>
+      </c>
+      <c r="I119">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>15</v>
       </c>
@@ -3605,19 +4539,27 @@
         <v>-1.8</v>
       </c>
       <c r="E120" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9 2014</v>
       </c>
       <c r="F120" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5 2011</v>
       </c>
       <c r="G120">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.8</v>
+      </c>
+      <c r="I120">
+        <f t="shared" ca="1" si="9"/>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>15</v>
       </c>
@@ -3631,19 +4573,27 @@
         <v>-0.9</v>
       </c>
       <c r="E121" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10 2014</v>
       </c>
       <c r="F121" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4 2011</v>
       </c>
       <c r="G121">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.6</v>
+      </c>
+      <c r="I121">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>15</v>
       </c>
@@ -3657,19 +4607,27 @@
         <v>-1.2</v>
       </c>
       <c r="E122" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11 2014</v>
       </c>
       <c r="F122" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3 2011</v>
       </c>
       <c r="G122">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2.6</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.9</v>
+      </c>
+      <c r="I122">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>15</v>
       </c>
@@ -3683,19 +4641,27 @@
         <v>-0.3</v>
       </c>
       <c r="E123" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12 2014</v>
       </c>
       <c r="F123" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>2 2011</v>
       </c>
       <c r="G123">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.7</v>
+      </c>
+      <c r="I123">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>16</v>
       </c>
@@ -3709,19 +4675,27 @@
         <v>-3</v>
       </c>
       <c r="E124" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1 2015</v>
       </c>
       <c r="F124" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1 2011</v>
       </c>
       <c r="G124">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I124">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>16</v>
       </c>
@@ -3735,19 +4709,27 @@
         <v>-1.2</v>
       </c>
       <c r="E125" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2 2015</v>
       </c>
       <c r="F125" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>12 2010</v>
       </c>
       <c r="G125">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="I125">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>16</v>
       </c>
@@ -3761,19 +4743,27 @@
         <v>-1.5</v>
       </c>
       <c r="E126" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3 2015</v>
       </c>
       <c r="F126" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>11 2010</v>
       </c>
       <c r="G126">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.4</v>
+      </c>
+      <c r="I126">
+        <f t="shared" ca="1" si="9"/>
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
@@ -3787,19 +4777,27 @@
         <v>-0.6</v>
       </c>
       <c r="E127" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4 2015</v>
       </c>
       <c r="F127" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>10 2010</v>
       </c>
       <c r="G127">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.6</v>
+      </c>
+      <c r="I127">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>16</v>
       </c>
@@ -3813,19 +4811,27 @@
         <v>1.7</v>
       </c>
       <c r="E128" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5 2015</v>
       </c>
       <c r="F128" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>9 2010</v>
       </c>
       <c r="G128">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>16</v>
       </c>
@@ -3839,19 +4845,27 @@
         <v>-0.1</v>
       </c>
       <c r="E129" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6 2015</v>
       </c>
       <c r="F129" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>8 2010</v>
       </c>
       <c r="G129">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="I129">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>16</v>
       </c>
@@ -3865,19 +4879,27 @@
         <v>-1.4</v>
       </c>
       <c r="E130" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7 2015</v>
       </c>
       <c r="F130" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>7 2010</v>
       </c>
       <c r="G130">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2.9</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.1</v>
+      </c>
+      <c r="I130">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>16</v>
       </c>
@@ -3891,19 +4913,27 @@
         <v>0.2</v>
       </c>
       <c r="E131" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8 2015</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>6 2010</v>
       </c>
       <c r="G131">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.8</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ca="1" si="9"/>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>16</v>
       </c>
@@ -3917,19 +4947,27 @@
         <v>-0.4</v>
       </c>
       <c r="E132" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9 2015</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>5 2010</v>
       </c>
       <c r="G132">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>-3.1</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132">
+        <f t="shared" ca="1" si="8"/>
+        <v>-2.7</v>
+      </c>
+      <c r="I132">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>16</v>
       </c>
@@ -3943,19 +4981,27 @@
         <v>-0.1</v>
       </c>
       <c r="E133" s="15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10 2015</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4 2010</v>
       </c>
       <c r="G133">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I133">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>16</v>
       </c>
@@ -3969,19 +5015,27 @@
         <v>-1.9</v>
       </c>
       <c r="E134" s="15" t="str">
-        <f t="shared" ref="E134:E195" si="6">CONCATENATE(B134," ",A134)</f>
+        <f t="shared" ref="E134:E195" si="10">CONCATENATE(B134," ",A134)</f>
         <v>11 2015</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" ref="F134:F195" ca="1" si="7">OFFSET($E$195,(ROW($E$5)-ROW()),)</f>
+        <f t="shared" ref="F134:F195" ca="1" si="11">OFFSET($E$195,(ROW($E$5)-ROW()),)</f>
         <v>3 2010</v>
       </c>
       <c r="G134">
-        <f t="shared" ref="G134:G195" ca="1" si="8">OFFSET($D$195,(ROW($D$5)-ROW()),)</f>
+        <f t="shared" ref="G134:G195" ca="1" si="12">OFFSET($D$195,(ROW($D$5)-ROW()),)</f>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134">
+        <f t="shared" ref="H134:H195" ca="1" si="13">OFFSET($C$195,(ROW($C$5)-ROW()),)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I134">
+        <f t="shared" ref="I134:I195" ca="1" si="14">H134/100</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>16</v>
       </c>
@@ -3995,19 +5049,27 @@
         <v>0</v>
       </c>
       <c r="E135" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>12 2015</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2 2010</v>
       </c>
       <c r="G135">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135">
+        <f t="shared" ca="1" si="13"/>
+        <v>-1.6</v>
+      </c>
+      <c r="I135">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1.6E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>17</v>
       </c>
@@ -4021,19 +5083,27 @@
         <v>-0.5</v>
       </c>
       <c r="E136" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1 2016</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1 2010</v>
       </c>
       <c r="G136">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.1</v>
+      </c>
+      <c r="I136">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>17</v>
       </c>
@@ -4047,19 +5117,27 @@
         <v>0.7</v>
       </c>
       <c r="E137" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2 2016</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>12 2009</v>
       </c>
       <c r="G137">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.6</v>
+      </c>
+      <c r="I137">
+        <f t="shared" ca="1" si="14"/>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>17</v>
       </c>
@@ -4073,19 +5151,27 @@
         <v>-0.3</v>
       </c>
       <c r="E138" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3 2016</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>11 2009</v>
       </c>
       <c r="G138">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.8</v>
+      </c>
+      <c r="I138">
+        <f t="shared" ca="1" si="14"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>17</v>
       </c>
@@ -4099,19 +5185,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E139" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4 2016</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>10 2009</v>
       </c>
       <c r="G139">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.4</v>
+      </c>
+      <c r="I139">
+        <f t="shared" ca="1" si="14"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>17</v>
       </c>
@@ -4125,19 +5219,27 @@
         <v>-0.1</v>
       </c>
       <c r="E140" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5 2016</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>9 2009</v>
       </c>
       <c r="G140">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.2</v>
+      </c>
+      <c r="I140">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>17</v>
       </c>
@@ -4151,19 +5253,27 @@
         <v>0.6</v>
       </c>
       <c r="E141" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6 2016</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>8 2009</v>
       </c>
       <c r="G141">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H141">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.8</v>
+      </c>
+      <c r="I141">
+        <f t="shared" ca="1" si="14"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>17</v>
       </c>
@@ -4177,19 +5287,27 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="E142" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7 2016</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>7 2009</v>
       </c>
       <c r="G142">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.6</v>
+      </c>
+      <c r="I142">
+        <f t="shared" ca="1" si="14"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>17</v>
       </c>
@@ -4203,19 +5321,27 @@
         <v>0.5</v>
       </c>
       <c r="E143" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8 2016</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>6 2009</v>
       </c>
       <c r="G143">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.4</v>
+      </c>
+      <c r="I143">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>17</v>
       </c>
@@ -4229,19 +5355,27 @@
         <v>0</v>
       </c>
       <c r="E144" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9 2016</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5 2009</v>
       </c>
       <c r="G144">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144">
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="I144">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>17</v>
       </c>
@@ -4255,19 +5389,27 @@
         <v>-0.5</v>
       </c>
       <c r="E145" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10 2016</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>4 2009</v>
       </c>
       <c r="G145">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>17</v>
       </c>
@@ -4281,19 +5423,27 @@
         <v>-0.7</v>
       </c>
       <c r="E146" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>11 2016</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3 2009</v>
       </c>
       <c r="G146">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.2</v>
+      </c>
+      <c r="I146">
+        <f t="shared" ca="1" si="14"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>17</v>
       </c>
@@ -4307,19 +5457,27 @@
         <v>-0.4</v>
       </c>
       <c r="E147" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>12 2016</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2 2009</v>
       </c>
       <c r="G147">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-2.2000000000000002</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H147">
+        <f t="shared" ca="1" si="13"/>
+        <v>-2</v>
+      </c>
+      <c r="I147">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>18</v>
       </c>
@@ -4333,19 +5491,27 @@
         <v>1</v>
       </c>
       <c r="E148" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1 2017</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1 2009</v>
       </c>
       <c r="G148">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H148">
+        <f t="shared" ca="1" si="13"/>
+        <v>-1.6</v>
+      </c>
+      <c r="I148">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1.6E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>18</v>
       </c>
@@ -4359,19 +5525,27 @@
         <v>0.8</v>
       </c>
       <c r="E149" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2 2017</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>12 2008</v>
       </c>
       <c r="G149">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>2.1</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H149">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I149">
+        <f t="shared" ca="1" si="14"/>
+        <v>2.2000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>18</v>
       </c>
@@ -4385,19 +5559,27 @@
         <v>0</v>
       </c>
       <c r="E150" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3 2017</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>11 2008</v>
       </c>
       <c r="G150">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H150">
+        <f t="shared" ca="1" si="13"/>
+        <v>-3.4</v>
+      </c>
+      <c r="I150">
+        <f t="shared" ca="1" si="14"/>
+        <v>-3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>18</v>
       </c>
@@ -4411,19 +5593,27 @@
         <v>0.4</v>
       </c>
       <c r="E151" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4 2017</v>
       </c>
       <c r="F151" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>10 2008</v>
       </c>
       <c r="G151">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-4.9000000000000004</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151">
+        <f t="shared" ca="1" si="13"/>
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="I151">
+        <f t="shared" ca="1" si="14"/>
+        <v>-4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>18</v>
       </c>
@@ -4437,19 +5627,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E152" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5 2017</v>
       </c>
       <c r="F152" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>9 2008</v>
       </c>
       <c r="G152">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-2.1</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152">
+        <f t="shared" ca="1" si="13"/>
+        <v>-2.1</v>
+      </c>
+      <c r="I152">
+        <f t="shared" ca="1" si="14"/>
+        <v>-2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>18</v>
       </c>
@@ -4463,19 +5661,27 @@
         <v>0.7</v>
       </c>
       <c r="E153" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6 2017</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>8 2008</v>
       </c>
       <c r="G153">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-2.9</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H153">
+        <f t="shared" ca="1" si="13"/>
+        <v>-3.2</v>
+      </c>
+      <c r="I153">
+        <f t="shared" ca="1" si="14"/>
+        <v>-3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>18</v>
       </c>
@@ -4489,19 +5695,27 @@
         <v>1.4</v>
       </c>
       <c r="E154" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7 2017</v>
       </c>
       <c r="F154" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>7 2008</v>
       </c>
       <c r="G154">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1.4</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H154">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.9</v>
+      </c>
+      <c r="I154">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>18</v>
       </c>
@@ -4515,19 +5729,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E155" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8 2017</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>6 2008</v>
       </c>
       <c r="G155">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>18</v>
       </c>
@@ -4541,19 +5763,27 @@
         <v>0.7</v>
       </c>
       <c r="E156" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9 2017</v>
       </c>
       <c r="F156" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5 2008</v>
       </c>
       <c r="G156">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H156">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.5</v>
+      </c>
+      <c r="I156">
+        <f t="shared" ca="1" si="14"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>18</v>
       </c>
@@ -4567,19 +5797,27 @@
         <v>-0.6</v>
       </c>
       <c r="E157" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10 2017</v>
       </c>
       <c r="F157" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>4 2008</v>
       </c>
       <c r="G157">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H157">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.8</v>
+      </c>
+      <c r="I157">
+        <f t="shared" ca="1" si="14"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>18</v>
       </c>
@@ -4593,19 +5831,27 @@
         <v>0.1</v>
       </c>
       <c r="E158" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>11 2017</v>
       </c>
       <c r="F158" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3 2008</v>
       </c>
       <c r="G158">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H158">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.1</v>
+      </c>
+      <c r="I158">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>18</v>
       </c>
@@ -4619,19 +5865,27 @@
         <v>1.3</v>
       </c>
       <c r="E159" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>12 2017</v>
       </c>
       <c r="F159" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2 2008</v>
       </c>
       <c r="G159">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H159">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.2</v>
+      </c>
+      <c r="I159">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>19</v>
       </c>
@@ -4645,19 +5899,27 @@
         <v>2.5</v>
       </c>
       <c r="E160" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1 2018</v>
       </c>
       <c r="F160" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1 2008</v>
       </c>
       <c r="G160">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H160">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.8</v>
+      </c>
+      <c r="I160">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>19</v>
       </c>
@@ -4671,19 +5933,27 @@
         <v>-0.3</v>
       </c>
       <c r="E161" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2 2018</v>
       </c>
       <c r="F161" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>12 2007</v>
       </c>
       <c r="G161">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H161">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.5</v>
+      </c>
+      <c r="I161">
+        <f t="shared" ca="1" si="14"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>19</v>
       </c>
@@ -4697,19 +5967,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E162" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3 2018</v>
       </c>
       <c r="F162" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>11 2007</v>
       </c>
       <c r="G162">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1.9</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H162">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.8</v>
+      </c>
+      <c r="I162">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>19</v>
       </c>
@@ -4723,19 +6001,27 @@
         <v>-0.2</v>
       </c>
       <c r="E163" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4 2018</v>
       </c>
       <c r="F163" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>10 2007</v>
       </c>
       <c r="G163">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H163">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="I163">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>19</v>
       </c>
@@ -4749,19 +6035,27 @@
         <v>-1.7</v>
       </c>
       <c r="E164" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5 2018</v>
       </c>
       <c r="F164" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>9 2007</v>
       </c>
       <c r="G164">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H164">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I164">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>19</v>
       </c>
@@ -4775,19 +6069,27 @@
         <v>0</v>
       </c>
       <c r="E165" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6 2018</v>
       </c>
       <c r="F165" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>8 2007</v>
       </c>
       <c r="G165">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H165">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.6</v>
+      </c>
+      <c r="I165">
+        <f t="shared" ca="1" si="14"/>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -4801,19 +6103,27 @@
         <v>-0.1</v>
       </c>
       <c r="E166" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7 2018</v>
       </c>
       <c r="F166" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>7 2007</v>
       </c>
       <c r="G166">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H166">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.1</v>
+      </c>
+      <c r="I166">
+        <f t="shared" ca="1" si="14"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>19</v>
       </c>
@@ -4827,19 +6137,27 @@
         <v>-0.7</v>
       </c>
       <c r="E167" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8 2018</v>
       </c>
       <c r="F167" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>6 2007</v>
       </c>
       <c r="G167">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H167">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.1</v>
+      </c>
+      <c r="I167">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>19</v>
       </c>
@@ -4853,19 +6171,27 @@
         <v>0.8</v>
       </c>
       <c r="E168" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9 2018</v>
       </c>
       <c r="F168" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5 2007</v>
       </c>
       <c r="G168">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H168">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.6</v>
+      </c>
+      <c r="I168">
+        <f t="shared" ca="1" si="14"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>19</v>
       </c>
@@ -4879,19 +6205,27 @@
         <v>-1</v>
       </c>
       <c r="E169" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10 2018</v>
       </c>
       <c r="F169" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>4 2007</v>
       </c>
       <c r="G169">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H169">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.2</v>
+      </c>
+      <c r="I169">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>19</v>
       </c>
@@ -4905,19 +6239,27 @@
         <v>-0.4</v>
       </c>
       <c r="E170" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>11 2018</v>
       </c>
       <c r="F170" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3 2007</v>
       </c>
       <c r="G170">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H170">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I170">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>19</v>
       </c>
@@ -4931,19 +6273,27 @@
         <v>0.1</v>
       </c>
       <c r="E171" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>12 2018</v>
       </c>
       <c r="F171" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2 2007</v>
       </c>
       <c r="G171">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H171">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="I171">
+        <f t="shared" ca="1" si="14"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>20</v>
       </c>
@@ -4957,19 +6307,27 @@
         <v>0.3</v>
       </c>
       <c r="E172" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1 2019</v>
       </c>
       <c r="F172" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1 2007</v>
       </c>
       <c r="G172">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H172">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.5</v>
+      </c>
+      <c r="I172">
+        <f t="shared" ca="1" si="14"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,19 +6341,27 @@
         <v>-0.3</v>
       </c>
       <c r="E173" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2 2019</v>
       </c>
       <c r="F173" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>12 2006</v>
       </c>
       <c r="G173">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1.8</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H173">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="I173">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>20</v>
       </c>
@@ -5009,19 +6375,27 @@
         <v>0.2</v>
       </c>
       <c r="E174" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3 2019</v>
       </c>
       <c r="F174" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>11 2006</v>
       </c>
       <c r="G174">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1.2</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H174">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.4</v>
+      </c>
+      <c r="I174">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>20</v>
       </c>
@@ -5035,19 +6409,27 @@
         <v>-0.5</v>
       </c>
       <c r="E175" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4 2019</v>
       </c>
       <c r="F175" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>10 2006</v>
       </c>
       <c r="G175">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H175">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.5</v>
+      </c>
+      <c r="I175">
+        <f t="shared" ca="1" si="14"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>20</v>
       </c>
@@ -5061,19 +6443,27 @@
         <v>-0.5</v>
       </c>
       <c r="E176" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5 2019</v>
       </c>
       <c r="F176" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>9 2006</v>
       </c>
       <c r="G176">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H176">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.6</v>
+      </c>
+      <c r="I176">
+        <f t="shared" ca="1" si="14"/>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>20</v>
       </c>
@@ -5087,19 +6477,27 @@
         <v>0.7</v>
       </c>
       <c r="E177" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6 2019</v>
       </c>
       <c r="F177" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>8 2006</v>
       </c>
       <c r="G177">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1.4</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H177">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.9</v>
+      </c>
+      <c r="I177">
+        <f t="shared" ca="1" si="14"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>20</v>
       </c>
@@ -5113,19 +6511,27 @@
         <v>-0.3</v>
       </c>
       <c r="E178" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7 2019</v>
       </c>
       <c r="F178" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>7 2006</v>
       </c>
       <c r="G178">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H178">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="I178">
+        <f t="shared" ca="1" si="14"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>20</v>
       </c>
@@ -5139,19 +6545,27 @@
         <v>-0.3</v>
       </c>
       <c r="E179" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8 2019</v>
       </c>
       <c r="F179" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>6 2006</v>
       </c>
       <c r="G179">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H179">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.1</v>
+      </c>
+      <c r="I179">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>20</v>
       </c>
@@ -5165,19 +6579,27 @@
         <v>-0.5</v>
       </c>
       <c r="E180" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9 2019</v>
       </c>
       <c r="F180" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5 2006</v>
       </c>
       <c r="G180">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>2.6</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H180">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.9</v>
+      </c>
+      <c r="I180">
+        <f t="shared" ca="1" si="14"/>
+        <v>2.8999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>20</v>
       </c>
@@ -5191,19 +6613,27 @@
         <v>0.1</v>
       </c>
       <c r="E181" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10 2019</v>
       </c>
       <c r="F181" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>4 2006</v>
       </c>
       <c r="G181">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1.7</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H181">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.4</v>
+      </c>
+      <c r="I181">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>20</v>
       </c>
@@ -5217,19 +6647,27 @@
         <v>0.1</v>
       </c>
       <c r="E182" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>11 2019</v>
       </c>
       <c r="F182" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3 2006</v>
       </c>
       <c r="G182">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H182">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.2</v>
+      </c>
+      <c r="I182">
+        <f t="shared" ca="1" si="14"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>20</v>
       </c>
@@ -5243,19 +6681,27 @@
         <v>0.6</v>
       </c>
       <c r="E183" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>12 2019</v>
       </c>
       <c r="F183" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2 2006</v>
       </c>
       <c r="G183">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H183">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.5</v>
+      </c>
+      <c r="I183">
+        <f t="shared" ca="1" si="14"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>21</v>
       </c>
@@ -5269,19 +6715,27 @@
         <v>0.3</v>
       </c>
       <c r="E184" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1 2020</v>
       </c>
       <c r="F184" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1 2006</v>
       </c>
       <c r="G184">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>2.1</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H184">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I184">
+        <f t="shared" ca="1" si="14"/>
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>21</v>
       </c>
@@ -5295,19 +6749,27 @@
         <v>-1.5</v>
       </c>
       <c r="E185" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2 2020</v>
       </c>
       <c r="F185" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>12 2005</v>
       </c>
       <c r="G185">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H185">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.7</v>
+      </c>
+      <c r="I185">
+        <f t="shared" ca="1" si="14"/>
+        <v>6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>21</v>
       </c>
@@ -5321,19 +6783,27 @@
         <v>1</v>
       </c>
       <c r="E186" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3 2020</v>
       </c>
       <c r="F186" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>11 2005</v>
       </c>
       <c r="G186">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-1.1000000000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H186">
+        <f t="shared" ca="1" si="13"/>
+        <v>-1.2</v>
+      </c>
+      <c r="I186">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>21</v>
       </c>
@@ -5347,19 +6817,27 @@
         <v>-1.9</v>
       </c>
       <c r="E187" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4 2020</v>
       </c>
       <c r="F187" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>10 2005</v>
       </c>
       <c r="G187">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H187">
+        <f t="shared" ca="1" si="13"/>
+        <v>-1.2</v>
+      </c>
+      <c r="I187">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>21</v>
       </c>
@@ -5373,19 +6851,27 @@
         <v>0.1</v>
       </c>
       <c r="E188" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5 2020</v>
       </c>
       <c r="F188" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>9 2005</v>
       </c>
       <c r="G188">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H188">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.5</v>
+      </c>
+      <c r="I188">
+        <f t="shared" ca="1" si="14"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>21</v>
       </c>
@@ -5399,19 +6885,27 @@
         <v>1.9</v>
       </c>
       <c r="E189" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6 2020</v>
       </c>
       <c r="F189" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>8 2005</v>
       </c>
       <c r="G189">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H189">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.6</v>
+      </c>
+      <c r="I189">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>21</v>
       </c>
@@ -5425,19 +6919,27 @@
         <v>1</v>
       </c>
       <c r="E190" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7 2020</v>
       </c>
       <c r="F190" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>7 2005</v>
       </c>
       <c r="G190">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H190">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.3</v>
+      </c>
+      <c r="I190">
+        <f t="shared" ca="1" si="14"/>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>21</v>
       </c>
@@ -5451,19 +6953,27 @@
         <v>1.8</v>
       </c>
       <c r="E191" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8 2020</v>
       </c>
       <c r="F191" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>6 2005</v>
       </c>
       <c r="G191">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H191">
+        <f t="shared" ca="1" si="13"/>
+        <v>-2.1</v>
+      </c>
+      <c r="I191">
+        <f t="shared" ca="1" si="14"/>
+        <v>-2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>21</v>
       </c>
@@ -5477,19 +6987,27 @@
         <v>-0.4</v>
       </c>
       <c r="E192" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>9 2020</v>
       </c>
       <c r="F192" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>5 2005</v>
       </c>
       <c r="G192">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H192">
+        <f t="shared" ca="1" si="13"/>
+        <v>-1.8</v>
+      </c>
+      <c r="I192">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>21</v>
       </c>
@@ -5503,19 +7021,27 @@
         <v>0.5</v>
       </c>
       <c r="E193" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>10 2020</v>
       </c>
       <c r="F193" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>4 2005</v>
       </c>
       <c r="G193">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-1.3</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H193">
+        <f t="shared" ca="1" si="13"/>
+        <v>-1.2</v>
+      </c>
+      <c r="I193">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>21</v>
       </c>
@@ -5529,19 +7055,27 @@
         <v>0.9</v>
       </c>
       <c r="E194" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>11 2020</v>
       </c>
       <c r="F194" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3 2005</v>
       </c>
       <c r="G194">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H194">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
         <v>21</v>
       </c>
@@ -5555,16 +7089,24 @@
         <v>2</v>
       </c>
       <c r="E195" s="15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>12 2020</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2 2005</v>
       </c>
       <c r="G195">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>-0.3</v>
+      </c>
+      <c r="H195">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.1</v>
+      </c>
+      <c r="I195">
+        <f t="shared" ca="1" si="14"/>
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
@@ -5576,9 +7118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5924EA22-EFFF-414E-88A9-CB5C40DE373F}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
